--- a/templates/AutomationOrg/SalesOrder_BaseData_SOAPI.xlsx
+++ b/templates/AutomationOrg/SalesOrder_BaseData_SOAPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_AutomationOrg\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{BF44932C-AEB8-442C-BB01-0BF0376D099B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{4221CF31-DDDA-40AF-8D49-4D2FF3B86499}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="2" windowHeight="9285" windowWidth="23850" xWindow="22680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="795"/>
+    <workbookView activeTab="3" windowHeight="10920" windowWidth="26670" xWindow="21525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="5265"/>
   </bookViews>
   <sheets>
     <sheet name="AddHeader" r:id="rId1" sheetId="14"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="185">
   <si>
     <t>Customer</t>
   </si>
@@ -454,15 +454,6 @@
     <t>PB_Automation</t>
   </si>
   <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>99617.0</t>
-  </si>
-  <si>
-    <t>99814.0</t>
-  </si>
-  <si>
     <t>53.0</t>
   </si>
   <si>
@@ -508,16 +499,124 @@
     <t>India</t>
   </si>
   <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>99117.0</t>
-  </si>
-  <si>
-    <t>99566.0</t>
-  </si>
-  <si>
-    <t>69.0</t>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>99107.0</t>
+  </si>
+  <si>
+    <t>99560.0</t>
+  </si>
+  <si>
+    <t>DiscountPct</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>99105.0</t>
+  </si>
+  <si>
+    <t>99558.0</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>99103.0</t>
+  </si>
+  <si>
+    <t>99557.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>99101.0</t>
+  </si>
+  <si>
+    <t>99556.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>99099.0</t>
+  </si>
+  <si>
+    <t>99555.0</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>99097.0</t>
+  </si>
+  <si>
+    <t>99554.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>99095.0</t>
+  </si>
+  <si>
+    <t>99553.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>99087.0</t>
+  </si>
+  <si>
+    <t>99547.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>99077.0</t>
+  </si>
+  <si>
+    <t>99542.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>99075.0</t>
+  </si>
+  <si>
+    <t>99541.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>99073.0</t>
+  </si>
+  <si>
+    <t>99540.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>99067.0</t>
+  </si>
+  <si>
+    <t>99537.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>99065.0</t>
+  </si>
+  <si>
+    <t>99536.0</t>
   </si>
 </sst>
 </file>
@@ -527,7 +626,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="163" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +671,762 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -762,7 +1617,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -815,11 +1670,200 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="166">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -860,8 +1904,134 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="15" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="49" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="50" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="51" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="52" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="53" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="54" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="55" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="56" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="57" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="67" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="73" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="85" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="86" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="87" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="88" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="89" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="90" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="91" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="92" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="93" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="94" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="95" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="96" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="97" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="98" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="99" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="100" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="101" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="102" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="103" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="104" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="105" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="106" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="107" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="108" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="109" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="110" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="111" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="112" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="113" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="114" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="115" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="116" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="117" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="118" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="119" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="120" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="121" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="122" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="123" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="124" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="125" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="126" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="127" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="128" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="129" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="145" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="146" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="147" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="148" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="149" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="150" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="152" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="153" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="157" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="162" fillId="0" borderId="78" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1869,10 +3039,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513CC44F-3165-4623-A12A-9D782A7314E2}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,12 +3056,13 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1923,16 +3094,19 @@
         <v>2</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -1964,16 +3138,19 @@
         <v>200</v>
       </c>
       <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -2005,13 +3182,16 @@
         <v>100</v>
       </c>
       <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>2</v>
       </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -2043,13 +3223,16 @@
         <v>50</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -2081,13 +3264,16 @@
         <v>80</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>4</v>
       </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
@@ -2119,9 +3305,12 @@
         <v>20</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>5</v>
       </c>
-      <c r="L6" t="b">
+      <c r="M6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3351,10 +4540,10 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3365,10 +4554,10 @@
         <v>126</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3379,10 +4568,10 @@
         <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3399,8 +4588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F7C87B-7082-49FA-9A1A-6F0FEB2DF64F}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3415,28 +4604,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3447,19 +4636,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F2">
         <v>411038</v>
       </c>
       <c r="G2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H2">
         <v>1236547891</v>

--- a/templates/AutomationOrg/SalesOrder_BaseData_SOAPI.xlsx
+++ b/templates/AutomationOrg/SalesOrder_BaseData_SOAPI.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="187">
   <si>
     <t>Customer</t>
   </si>
@@ -617,6 +617,12 @@
   </si>
   <si>
     <t>99536.0</t>
+  </si>
+  <si>
+    <t>98933.0</t>
+  </si>
+  <si>
+    <t>99475.0</t>
   </si>
 </sst>
 </file>
@@ -626,7 +632,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="163" x14ac:knownFonts="1">
+  <fonts count="175" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,6 +677,78 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1617,7 +1695,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="79">
+  <borders count="85">
     <border>
       <left/>
       <right/>
@@ -1859,11 +1937,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="178">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -2030,8 +2126,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="162" fillId="0" borderId="78" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="163" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="164" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="165" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="166" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="167" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="168" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="169" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="170" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="171" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="172" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="174" fillId="0" borderId="84" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4540,7 +4648,7 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
         <v>164</v>
@@ -4554,7 +4662,7 @@
         <v>126</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>165</v>
@@ -4568,7 +4676,7 @@
         <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
         <v>166</v>

--- a/templates/AutomationOrg/SalesOrder_BaseData_SOAPI.xlsx
+++ b/templates/AutomationOrg/SalesOrder_BaseData_SOAPI.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="190">
   <si>
     <t>Customer</t>
   </si>
@@ -623,6 +623,15 @@
   </si>
   <si>
     <t>99475.0</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>98811.0</t>
+  </si>
+  <si>
+    <t>99414.0</t>
   </si>
 </sst>
 </file>
@@ -632,7 +641,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="175" x14ac:knownFonts="1">
+  <fonts count="181" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,6 +686,42 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1695,7 +1740,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="85">
+  <borders count="88">
     <border>
       <left/>
       <right/>
@@ -1955,11 +2000,20 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="184">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -2138,8 +2192,14 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="170" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="171" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="172" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="174" fillId="0" borderId="84" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="173" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="174" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="175" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="176" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="177" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="178" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="180" fillId="0" borderId="87" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4648,7 +4708,7 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>164</v>
@@ -4662,7 +4722,7 @@
         <v>126</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>165</v>
@@ -4676,7 +4736,7 @@
         <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
         <v>166</v>
